--- a/ESPN sports website/IPL/Kolkata Knight Riders/Baba Indrajith †.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Baba Indrajith †.xlsx
@@ -480,10 +480,10 @@
         <v>Baba Indrajith †</v>
       </c>
       <c r="C3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
         <v>6</v>
-      </c>
-      <c r="D3" t="str">
-        <v>8</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>75.00</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Delhi Capitals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>April 28, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         <v>Baba Indrajith †</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>0.00</v>
+        <v>75.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>May 07, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
   </sheetData>
